--- a/Planning/Function Specification.xlsx
+++ b/Planning/Function Specification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6E0A4-9BBE-4433-909B-A2F0CD1A2C3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F932E095-DC85-4A95-9A91-9E9AD4B1E460}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 명세서" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,26 @@
   </si>
   <si>
     <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원 목록 동적 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 분류 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 분류별 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -191,6 +211,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +499,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F2C4CA-865C-4AC6-96E5-C4C390B20B7D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,6 +642,7 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,8 +800,61 @@
       </c>
       <c r="E10" s="5"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>